--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDF\AICT project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6087E40-9C14-47AB-9A6C-D381BEE1BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9847B75-2912-41E8-8979-B158800F725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3D40E8D-F9FB-4A04-96B4-9E9E1FFBCFDA}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Item Name</t>
   </si>
@@ -57,9 +58,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Chocolate Cake</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -76,9 +74,6 @@
   </si>
   <si>
     <t>Column6</t>
-  </si>
-  <si>
-    <t>Starter</t>
   </si>
 </sst>
 </file>
@@ -219,7 +214,209 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Raw Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D5">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Starter</v>
+          </cell>
+          <cell r="D7">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D8">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Starter</v>
+          </cell>
+          <cell r="D9">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Starter</v>
+          </cell>
+          <cell r="D10">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Starter</v>
+          </cell>
+          <cell r="D11">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D12">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D13">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Breakfast</v>
+          </cell>
+          <cell r="D14">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D16">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Soup</v>
+          </cell>
+          <cell r="D17">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Soup</v>
+          </cell>
+          <cell r="D18">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D19">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D20">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D21">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D22">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D23">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Dessert</v>
+          </cell>
+          <cell r="D24">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D25">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D26">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>Fast Food</v>
+          </cell>
+          <cell r="D27">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Dessert</v>
+          </cell>
+          <cell r="D28">
+            <v>45</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -227,253 +424,123 @@
           <cell r="B5" t="str">
             <v>CRISPY FRIED CHICKEN</v>
           </cell>
-          <cell r="C5" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D5">
-            <v>13</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
             <v>CHEESE PIZZA</v>
           </cell>
-          <cell r="C6" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D6">
-            <v>12</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>MINI SLIDERS WITH FRIES</v>
           </cell>
-          <cell r="D7">
-            <v>15</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
             <v>GRILLED CLUB SANDWICH</v>
           </cell>
-          <cell r="C8" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D8">
-            <v>11</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
             <v>FRESH SPRING ROLLS</v>
           </cell>
-          <cell r="D9">
-            <v>19</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
             <v>SAMOSAS WITH CHUTNEY</v>
           </cell>
-          <cell r="C10" t="str">
-            <v>Starter</v>
-          </cell>
-          <cell r="D10">
-            <v>20</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>FRESH FRIES WITH Dips</v>
-          </cell>
-          <cell r="D11">
-            <v>21</v>
+            <v>FRESH FRIES WITH DIPS</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
             <v>FRESH GARDEN SALAD</v>
           </cell>
-          <cell r="C12" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D12">
-            <v>16</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
             <v>CHICKEN BURGER</v>
           </cell>
-          <cell r="C13" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D13">
-            <v>17</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>FRUIT &amp; YOGURT Bowl</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Breakfast</v>
-          </cell>
-          <cell r="D14">
-            <v>22</v>
+            <v>FRUIT &amp; YOGURT BOWL</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
             <v>BOILED EGGS WITH GREENS</v>
           </cell>
-          <cell r="D15">
-            <v>14</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
             <v>MEDITERRANEAN PLATTER</v>
           </cell>
-          <cell r="C16" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D16">
-            <v>12</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Pumpkin SOUP</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Soup</v>
-          </cell>
-          <cell r="D17">
-            <v>11</v>
+            <v>PUMPKIN SOUP</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
             <v>VEGETABLE SOUP</v>
           </cell>
-          <cell r="C18" t="str">
-            <v>Soup</v>
-          </cell>
-          <cell r="D18">
-            <v>18</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
             <v>SPINACH CHICKEN</v>
           </cell>
-          <cell r="C19" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D19">
-            <v>19</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
             <v>PASTA WITH VEGETABLES</v>
           </cell>
-          <cell r="C20" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D20">
-            <v>20</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>DESSERT Plate</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D21">
-            <v>23</v>
+            <v>DESSERT PLATE</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
             <v>MIXED CHICKEN</v>
           </cell>
-          <cell r="C22" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D22">
-            <v>16</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
             <v>GRILLED MEAT</v>
           </cell>
-          <cell r="C23" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D23">
-            <v>26</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
             <v>FRUIT PORRIDGE</v>
           </cell>
-          <cell r="C24" t="str">
-            <v>Dessert</v>
-          </cell>
-          <cell r="D24">
-            <v>23</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>GRILLED Fish</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D25">
-            <v>28</v>
+            <v>GRILLED FISH</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Beef steek</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D26">
-            <v>30</v>
+            <v>BEEF STEEK</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Chicken Wrap</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Fast Food</v>
-          </cell>
-          <cell r="D27">
-            <v>24</v>
+            <v>CHICKEN WRAP</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="C28" t="str">
-            <v>Dessert</v>
-          </cell>
-          <cell r="D28">
-            <v>45</v>
+          <cell r="B28" t="str">
+            <v>CHOCOLATE CAKE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -801,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2D062B-0218-4EFC-85E5-DD3AEF0D6001}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,22 +884,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,7 +932,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>[1]Sheet1!B5</f>
+        <f>[2]Sheet1!B5</f>
         <v>CRISPY FRIED CHICKEN</v>
       </c>
       <c r="B4" s="2">
@@ -890,7 +957,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>[1]Sheet1!B6</f>
+        <f>[2]Sheet1!B6</f>
         <v>CHEESE PIZZA</v>
       </c>
       <c r="B5" s="2">
@@ -915,7 +982,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>[1]Sheet1!B7</f>
+        <f>[2]Sheet1!B7</f>
         <v>MINI SLIDERS WITH FRIES</v>
       </c>
       <c r="B6" s="2">
@@ -933,13 +1000,14 @@
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="F6" t="str">
+        <f>[1]Sheet1!C7</f>
+        <v>Starter</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>[1]Sheet1!B8</f>
+        <f>[2]Sheet1!B8</f>
         <v>GRILLED CLUB SANDWICH</v>
       </c>
       <c r="B7" s="2">
@@ -964,7 +1032,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>[1]Sheet1!B9</f>
+        <f>[2]Sheet1!B9</f>
         <v>FRESH SPRING ROLLS</v>
       </c>
       <c r="B8" s="2">
@@ -982,13 +1050,14 @@
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
+      <c r="F8" t="str">
+        <f>[1]Sheet1!C9</f>
+        <v>Starter</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>[1]Sheet1!B10</f>
+        <f>[2]Sheet1!B10</f>
         <v>SAMOSAS WITH CHUTNEY</v>
       </c>
       <c r="B9" s="2">
@@ -1013,8 +1082,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>[1]Sheet1!B11</f>
-        <v>FRESH FRIES WITH Dips</v>
+        <f>[2]Sheet1!B11</f>
+        <v>FRESH FRIES WITH DIPS</v>
       </c>
       <c r="B10" s="2">
         <f>[1]Sheet1!D11</f>
@@ -1031,13 +1100,14 @@
         <f t="shared" si="1"/>
         <v>Low</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
+      <c r="F10" t="str">
+        <f>[1]Sheet1!C11</f>
+        <v>Starter</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>[1]Sheet1!B12</f>
+        <f>[2]Sheet1!B12</f>
         <v>FRESH GARDEN SALAD</v>
       </c>
       <c r="B11" s="2">
@@ -1062,7 +1132,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>[1]Sheet1!B13</f>
+        <f>[2]Sheet1!B13</f>
         <v>CHICKEN BURGER</v>
       </c>
       <c r="B12" s="2">
@@ -1087,8 +1157,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>[1]Sheet1!B14</f>
-        <v>FRUIT &amp; YOGURT Bowl</v>
+        <f>[2]Sheet1!B14</f>
+        <v>FRUIT &amp; YOGURT BOWL</v>
       </c>
       <c r="B13" s="2">
         <f>[1]Sheet1!D14</f>
@@ -1112,7 +1182,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>[1]Sheet1!B15</f>
+        <f>[2]Sheet1!B15</f>
         <v>BOILED EGGS WITH GREENS</v>
       </c>
       <c r="B14" s="2">
@@ -1130,13 +1200,14 @@
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
+      <c r="F14" t="str">
+        <f>[1]Sheet1!C14</f>
+        <v>Breakfast</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>[1]Sheet1!B16</f>
+        <f>[2]Sheet1!B16</f>
         <v>MEDITERRANEAN PLATTER</v>
       </c>
       <c r="B15" s="2">
@@ -1161,8 +1232,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>[1]Sheet1!B17</f>
-        <v>Pumpkin SOUP</v>
+        <f>[2]Sheet1!B17</f>
+        <v>PUMPKIN SOUP</v>
       </c>
       <c r="B16" s="2">
         <f>[1]Sheet1!D17</f>
@@ -1186,7 +1257,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>[1]Sheet1!B18</f>
+        <f>[2]Sheet1!B18</f>
         <v>VEGETABLE SOUP</v>
       </c>
       <c r="B17" s="2">
@@ -1211,7 +1282,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>[1]Sheet1!B19</f>
+        <f>[2]Sheet1!B19</f>
         <v>SPINACH CHICKEN</v>
       </c>
       <c r="B18" s="2">
@@ -1236,7 +1307,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>[1]Sheet1!B20</f>
+        <f>[2]Sheet1!B20</f>
         <v>PASTA WITH VEGETABLES</v>
       </c>
       <c r="B19" s="2">
@@ -1261,8 +1332,8 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>[1]Sheet1!B21</f>
-        <v>DESSERT Plate</v>
+        <f>[2]Sheet1!B21</f>
+        <v>DESSERT PLATE</v>
       </c>
       <c r="B20" s="2">
         <f>[1]Sheet1!D21</f>
@@ -1286,7 +1357,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>[1]Sheet1!B22</f>
+        <f>[2]Sheet1!B22</f>
         <v>MIXED CHICKEN</v>
       </c>
       <c r="B21" s="2">
@@ -1311,7 +1382,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>[1]Sheet1!B23</f>
+        <f>[2]Sheet1!B23</f>
         <v>GRILLED MEAT</v>
       </c>
       <c r="B22" s="2">
@@ -1336,7 +1407,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>[1]Sheet1!B24</f>
+        <f>[2]Sheet1!B24</f>
         <v>FRUIT PORRIDGE</v>
       </c>
       <c r="B23" s="2">
@@ -1361,8 +1432,8 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>[1]Sheet1!B25</f>
-        <v>GRILLED Fish</v>
+        <f>[2]Sheet1!B25</f>
+        <v>GRILLED FISH</v>
       </c>
       <c r="B24" s="2">
         <f>[1]Sheet1!D25</f>
@@ -1386,8 +1457,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>[1]Sheet1!B26</f>
-        <v>Beef steek</v>
+        <f>[2]Sheet1!B26</f>
+        <v>BEEF STEEK</v>
       </c>
       <c r="B25" s="2">
         <f>[1]Sheet1!D26</f>
@@ -1411,8 +1482,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>[1]Sheet1!B27</f>
-        <v>Chicken Wrap</v>
+        <f>[2]Sheet1!B27</f>
+        <v>CHICKEN WRAP</v>
       </c>
       <c r="B26" s="2">
         <f>[1]Sheet1!D27</f>
@@ -1435,8 +1506,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
+      <c r="A27" t="str">
+        <f>[2]Sheet1!B28</f>
+        <v>CHOCOLATE CAKE</v>
       </c>
       <c r="B27" s="2">
         <f>[1]Sheet1!D28</f>
